--- a/Assets/Other/_实时状态.xlsx
+++ b/Assets/Other/_实时状态.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>沉默</t>
   </si>
@@ -24,6 +24,33 @@
     <t>无法施法</t>
   </si>
   <si>
+    <t>缠绕</t>
+  </si>
+  <si>
+    <t>无法移动</t>
+  </si>
+  <si>
+    <t>显形</t>
+  </si>
+  <si>
+    <t>无法潜行</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>无法做出任何行动</t>
+  </si>
+  <si>
+    <t>催眠</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>无法攻击</t>
+  </si>
+  <si>
     <t>流血</t>
   </si>
   <si>
@@ -39,37 +66,19 @@
     <t>持续损失阴气生命</t>
   </si>
   <si>
+    <t>腐蚀</t>
+  </si>
+  <si>
+    <t>持续真实伤害</t>
+  </si>
+  <si>
     <t>易伤</t>
   </si>
   <si>
-    <t>致残</t>
-  </si>
-  <si>
-    <t>无法移动</t>
-  </si>
-  <si>
-    <t>恐惧</t>
-  </si>
-  <si>
-    <t>无法攻击</t>
-  </si>
-  <si>
-    <t>显形</t>
-  </si>
-  <si>
-    <t>无法潜行</t>
-  </si>
-  <si>
     <t>狂暴</t>
   </si>
   <si>
     <t>魅惑</t>
-  </si>
-  <si>
-    <t>禁锢</t>
-  </si>
-  <si>
-    <t>无法做出任何行动</t>
   </si>
   <si>
     <t>解脱</t>
@@ -122,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,29 +146,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,71 +174,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,21 +254,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -281,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,25 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,157 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,36 +489,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,15 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +522,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,148 +594,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1129,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1138,10 +1140,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1150,21 +1152,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="3:6">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1172,10 +1170,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1184,10 +1182,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1196,9 +1194,11 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1206,9 +1206,11 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1230,16 +1232,16 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1250,9 +1252,7 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1292,9 +1292,11 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1324,25 +1326,55 @@
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/_实时状态.xlsx
+++ b/Assets/Other/_实时状态.xlsx
@@ -7,54 +7,95 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="实时状态" sheetId="1" r:id="rId1"/>
+    <sheet name="领域" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+  <si>
+    <t>部分特质可免疫一定等级的状态  免疫程度为正的 是正面状态，为负的是debuff 大概为  -2 -1 0 1 2</t>
+  </si>
+  <si>
+    <t>行为禁止</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>免疫程度</t>
+  </si>
+  <si>
+    <t>数值变化</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>躯壳无法做出任何行为</t>
+  </si>
+  <si>
+    <t>闪避率-100%</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>躯壳无法做出任何行动  魂魄无法出窍</t>
+  </si>
+  <si>
+    <t>催眠</t>
+  </si>
+  <si>
+    <t>【卡比】特质 可在睡眠时每回合恢复生命</t>
+  </si>
+  <si>
+    <t>缠绕</t>
+  </si>
+  <si>
+    <t>躯壳无法移动  魂魄无法移动</t>
+  </si>
+  <si>
+    <t>速度-5</t>
+  </si>
   <si>
     <t>沉默</t>
   </si>
   <si>
-    <t>无法施法</t>
-  </si>
-  <si>
-    <t>缠绕</t>
-  </si>
-  <si>
-    <t>无法移动</t>
+    <t>躯壳无法施法  魂魄无法施法</t>
   </si>
   <si>
     <t>显形</t>
   </si>
   <si>
-    <t>无法潜行</t>
-  </si>
-  <si>
-    <t>禁锢</t>
-  </si>
-  <si>
-    <t>无法做出任何行动</t>
-  </si>
-  <si>
-    <t>催眠</t>
+    <t>躯壳无法潜行  魂魄无法潜行</t>
   </si>
   <si>
     <t>恐惧</t>
   </si>
   <si>
-    <t>无法攻击</t>
+    <t>无法攻击 无法反击</t>
+  </si>
+  <si>
+    <t>格挡-50%</t>
+  </si>
+  <si>
+    <t>断筋</t>
+  </si>
+  <si>
+    <t>躯壳无法移动  魂魄不受影响</t>
   </si>
   <si>
     <t>流血</t>
   </si>
   <si>
-    <t>持续损失阳气生命</t>
+    <t>持续损失躯壳生命</t>
   </si>
   <si>
     <t>中毒</t>
@@ -63,7 +104,7 @@
     <t>驱散</t>
   </si>
   <si>
-    <t>持续损失阴气生命</t>
+    <t>持续损失魂魄生命</t>
   </si>
   <si>
     <t>腐蚀</t>
@@ -75,16 +116,31 @@
     <t>易伤</t>
   </si>
   <si>
+    <t>易伤+？%</t>
+  </si>
+  <si>
     <t>狂暴</t>
   </si>
   <si>
+    <t>攻击+？%</t>
+  </si>
+  <si>
+    <t>自动选择行为</t>
+  </si>
+  <si>
     <t>魅惑</t>
   </si>
   <si>
     <t>解脱</t>
   </si>
   <si>
-    <t>无敌，不再攻击，x回合后消散</t>
+    <t>无法做出任何行为</t>
+  </si>
+  <si>
+    <t>防御+999 生命+999</t>
+  </si>
+  <si>
+    <t>x回合后消散 无法被选中为攻击对象</t>
   </si>
   <si>
     <t>因果缠身</t>
@@ -124,6 +180,9 @@
   </si>
   <si>
     <t>清明度达到极限时，类似暗黑地牢</t>
+  </si>
+  <si>
+    <t>一种aoe光环</t>
   </si>
 </sst>
 </file>
@@ -131,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +204,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -153,14 +250,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,63 +279,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,35 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,18 +357,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,13 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,126 +531,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,18 +538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +548,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +607,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,15 +630,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,26 +648,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,142 +668,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,287 +1159,399 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="35.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="5.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.2222222222222" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="5:8">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,30 +1566,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>